--- a/Deliverable1/model/Diagrams/UC/Use Case Descriptions Excel.xlsx
+++ b/Deliverable1/model/Diagrams/UC/Use Case Descriptions Excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Actor(s)</t>
   </si>
   <si>
-    <t>Precondition</t>
-  </si>
-  <si>
     <t>Domain Entities</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>Department, Security Authentication</t>
-  </si>
-  <si>
-    <t>Registered</t>
   </si>
   <si>
     <t>Main Success Scenario</t>
@@ -626,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="101" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -641,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -652,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -680,13 +676,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,163 +690,157 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -858,10 +848,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -869,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -883,13 +873,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,13 +887,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -911,109 +901,101 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1021,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1032,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,13 +1028,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1060,13 +1042,13 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1074,125 +1056,119 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
